--- a/data/trans_dic/P25A_2_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_2_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por hipertensión/presión arterial alta</t>
+          <t>Población con limitación por hipertensión/presión arterial alta (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,54</t>
+          <t>1,3; 5,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,61</t>
+          <t>1,07; 3,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,11</t>
+          <t>0,56; 2,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,23</t>
+          <t>1,3; 3,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,91</t>
+          <t>2,41; 5,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,88</t>
+          <t>2,05; 5,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,77</t>
+          <t>0,85; 3,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 16,2</t>
+          <t>1,71; 4,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,64</t>
+          <t>1,02; 3,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,54</t>
+          <t>1,25; 3,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,13</t>
+          <t>3,0; 6,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 13,65</t>
+          <t>1,67; 5,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 3,7</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 3,3</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 2,2</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 3,04</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 4,96</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 4,5</t>
         </is>
       </c>
     </row>
@@ -796,7 +905,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -806,52 +915,82 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,62</t>
+          <t>0,58; 2,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,63</t>
+          <t>0,14; 1,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,11</t>
+          <t>0,13; 1,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 22,44</t>
+          <t>0,95; 4,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,97</t>
+          <t>2,39; 8,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,63</t>
+          <t>1,46; 4,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,19</t>
+          <t>0,74; 3,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 37,09</t>
+          <t>1,1; 3,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,3</t>
+          <t>1,34; 8,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,14</t>
+          <t>2,16; 8,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,89</t>
+          <t>2,23; 7,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 25,34</t>
+          <t>2,88; 7,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 2,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 2,08</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 4,13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 5,41</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 6,76</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 5,6</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,5</t>
+          <t>0,73; 6,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,14</t>
+          <t>1,89; 9,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,12</t>
+          <t>0,93; 7,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 11,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,27</t>
+          <t>0,98; 7,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,95</t>
+          <t>1,25; 8,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>0,74; 6,44</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 7,78</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 6,6</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 5,78</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>0,54; 5,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 6,36</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 6,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 6,07</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 4,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1403,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,55</t>
+          <t>1,28; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,65 +1413,1509 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,66</t>
+          <t>0,65; 1,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,96</t>
+          <t>1,39; 3,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,82</t>
+          <t>2,69; 5,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,32</t>
+          <t>2,17; 4,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,19</t>
+          <t>1,23; 2,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,4; 18,11</t>
+          <t>1,75; 3,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,81</t>
+          <t>1,59; 3,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,68</t>
+          <t>1,75; 3,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,25</t>
+          <t>3,07; 5,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,64</t>
+          <t>2,51; 5,09</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 2,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 2,64</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 2,7</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 3,14</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 4,96</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 4,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por hipertensión/presión arterial alta (tasa de respuesta: 99,81%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42035</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32914</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18796</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5004</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8067</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56286</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29683</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48199</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>33246</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5139</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10058</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52058</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>71718</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>81113</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>52042</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>10143</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18125</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>108344</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21535; 94223</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17499; 65169</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9282; 34870</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2972; 7680</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5487; 11635</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33551; 92441</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15246; 55410</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31214; 73737</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18417; 56961</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2969; 7816</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7075; 14229</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30039; 90388</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>45297; 127733</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>56289; 114238</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>31999; 76089</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7310; 14155</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>13852; 22970</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>73980; 154732</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17979</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7178</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6979</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38979</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22164</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>28021</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39455</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>66330</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>40143</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>35199</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>46435</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6247</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>105310</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7943; 35616</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1957; 20475</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1813; 17032</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>680; 3181</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1749; 6163</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20168; 65218</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10306; 45228</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15073; 47752</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>18431; 110438</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1394; 5369</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1480; 5143</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39611; 104930</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22313; 68252</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20357; 57093</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>23720; 113528</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2332; 7381</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4086; 9417</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>71066; 154535</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11914</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18993</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12704</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12096</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16663</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10670</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13904</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7923</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28577</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>29663</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>26608</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>20018</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3086; 28959</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8011; 38571</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3947; 32320</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4131; 29805</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5101; 36695</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3014; 26187</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4602; 32054</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2213; 20756</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13793; 52964</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16054; 54251</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11269; 50647</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8098; 38622</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>71928</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59085</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38479</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6523</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11368</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>107361</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>68510</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>86890</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>86605</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7884</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13004</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>126311</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>140438</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>145975</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>125084</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>14407</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>24372</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>233672</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44303; 124607</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>37783; 92831</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22442; 66072</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4187; 9638</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8083; 15066</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>74651; 151491</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>44344; 103239</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62950; 118658</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57242; 143433</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5272; 11238</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9280; 17311</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>89716; 182418</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>99288; 192888</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>108136; 185806</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>88736; 190272</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>10637; 18881</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>19784; 29917</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>184596; 295585</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
